--- a/Project/Scrum board.xlsx
+++ b/Project/Scrum board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\GanttProject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249123B2-9B25-4392-8865-4DBDB584506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1EF806-FC3C-4F4C-BC10-B7181DBC2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -276,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -785,11 +795,11 @@
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
@@ -798,11 +808,11 @@
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
@@ -811,10 +821,10 @@
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
       <c r="E23" s="3" t="s">
         <v>10</v>
@@ -837,7 +847,7 @@
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4"/>
@@ -1831,6 +1841,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Scrum board.xlsx
+++ b/Project/Scrum board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\GanttProject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1EF806-FC3C-4F4C-BC10-B7181DBC2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA580183-9797-4FB2-8D5B-EA04DD138C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,6 +301,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -564,13 +564,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -638,13 +638,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -686,13 +686,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -722,13 +722,13 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -783,13 +783,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -822,10 +822,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="6"/>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
@@ -834,11 +834,11 @@
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -847,11 +847,11 @@
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
